--- a/data/trans_orig/P19D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Edad-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4540</v>
+        <v>4495</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002405449987385338</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0120651778284103</v>
+        <v>0.01194734752591343</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5289</v>
+        <v>5912</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001230274584181264</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007188965629167216</v>
+        <v>0.008037024995968683</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>338658</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>328373</v>
+        <v>327670</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>346304</v>
+        <v>345848</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9422852076552031</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.913667498169846</v>
+        <v>0.9117126871863787</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9635583913968141</v>
+        <v>0.9622896772524037</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>366</v>
@@ -828,19 +828,19 @@
         <v>348622</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>338090</v>
+        <v>337703</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>357964</v>
+        <v>357019</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9265664109677891</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8985731920841962</v>
+        <v>0.8975451616705433</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9513930624190868</v>
+        <v>0.9488834066390426</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>707</v>
@@ -849,19 +849,19 @@
         <v>687281</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>671451</v>
+        <v>671793</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>698683</v>
+        <v>699698</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9342457821174232</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9127283699998392</v>
+        <v>0.913192705047712</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9497451374746897</v>
+        <v>0.951125447770519</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>5288</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1886</v>
+        <v>1834</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13777</v>
+        <v>13026</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01471311892299111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005248948372996038</v>
+        <v>0.005102747181196135</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0383332685500502</v>
+        <v>0.03624293800168853</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5417</v>
+        <v>6553</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002882919132648448</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01439807439345829</v>
+        <v>0.01741682749000693</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -920,19 +920,19 @@
         <v>6373</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2569</v>
+        <v>2537</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13293</v>
+        <v>14100</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008662527888394151</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003491699598956682</v>
+        <v>0.003447960281584994</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01806940087035879</v>
+        <v>0.01916599115027612</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>15455</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9398</v>
+        <v>9346</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24105</v>
+        <v>25332</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04300167342180586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02614940614170035</v>
+        <v>0.02600478828709871</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06706941655012716</v>
+        <v>0.07048493129116246</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -970,19 +970,19 @@
         <v>25640</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16899</v>
+        <v>16778</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35473</v>
+        <v>36286</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06814521991217713</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04491307419711797</v>
+        <v>0.04459255440501973</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09428088848513878</v>
+        <v>0.0964394544232363</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -991,19 +991,19 @@
         <v>41095</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30653</v>
+        <v>30149</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56608</v>
+        <v>55318</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05586141541000145</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04166812820167998</v>
+        <v>0.0409832430370223</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07694880864848738</v>
+        <v>0.07519635455891648</v>
       </c>
     </row>
     <row r="8">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4407</v>
+        <v>3963</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001527721737759483</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.007634094096495849</v>
+        <v>0.006864438609121569</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8076</v>
+        <v>7268</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004148406597587397</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01474482203678279</v>
+        <v>0.01327071067373283</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1137,19 +1137,19 @@
         <v>3154</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8582</v>
+        <v>9145</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002803614274576293</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0007782480053735491</v>
+        <v>0.0007857735670412398</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007628174412307694</v>
+        <v>0.008129054028738408</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>545117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>531313</v>
+        <v>531985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>555088</v>
+        <v>554509</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9442766749613188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9203650066140375</v>
+        <v>0.9215293853871032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9615490467356838</v>
+        <v>0.9605471881891348</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>475</v>
@@ -1187,19 +1187,19 @@
         <v>499553</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>485083</v>
+        <v>485641</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>512421</v>
+        <v>512731</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9120791328768413</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8856598608983369</v>
+        <v>0.8866791583373813</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.935573906002966</v>
+        <v>0.9361389433762887</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>999</v>
@@ -1208,19 +1208,19 @@
         <v>1044670</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1025446</v>
+        <v>1026897</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1060290</v>
+        <v>1061930</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9286011527804002</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9115132234431936</v>
+        <v>0.9128033972365862</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9424855666686625</v>
+        <v>0.9439437565877292</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>12396</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7061</v>
+        <v>7115</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20463</v>
+        <v>21063</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02147344551077596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01223183925968917</v>
+        <v>0.01232579085505339</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03544618433711458</v>
+        <v>0.03648588386942993</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1258,19 +1258,19 @@
         <v>14565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8308</v>
+        <v>8116</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24172</v>
+        <v>23796</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02659248050059774</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01516913702933763</v>
+        <v>0.01481834190059602</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04413305326315178</v>
+        <v>0.04344726798827434</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1279,19 +1279,19 @@
         <v>26961</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18788</v>
+        <v>17865</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39509</v>
+        <v>37555</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02396567135575855</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0167002234716245</v>
+        <v>0.01588035912246859</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03511955330153965</v>
+        <v>0.03338215360264223</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>18890</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11167</v>
+        <v>11549</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30502</v>
+        <v>30231</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03272215779014576</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01934445770707599</v>
+        <v>0.0200051168728492</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05283642871945146</v>
+        <v>0.05236767865559778</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -1329,19 +1329,19 @@
         <v>31318</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21380</v>
+        <v>21638</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44525</v>
+        <v>44603</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05717998002497363</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03903568299524277</v>
+        <v>0.03950598119288889</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08129327142672867</v>
+        <v>0.08143576764307135</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -1350,19 +1350,19 @@
         <v>50208</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37839</v>
+        <v>37039</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>66302</v>
+        <v>65480</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04462956158926497</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03363521965937007</v>
+        <v>0.0329234934151653</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05893527283251086</v>
+        <v>0.05820502919598042</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5346</v>
+        <v>6192</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003485646764841282</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01062913755581556</v>
+        <v>0.01231217803897341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5739</v>
+        <v>5550</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001686084665914325</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009508968007282709</v>
+        <v>0.009195324796169755</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1496,19 +1496,19 @@
         <v>2771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7749</v>
+        <v>7041</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002504033851449116</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0007859827677918468</v>
+        <v>0.0007867343825820956</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007003024786625774</v>
+        <v>0.00636364347126711</v>
       </c>
     </row>
     <row r="15">
@@ -1525,19 +1525,19 @@
         <v>455700</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>440698</v>
+        <v>440995</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>467969</v>
+        <v>467006</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9060846852344618</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8762567033370201</v>
+        <v>0.8768466014256023</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9304788432571192</v>
+        <v>0.9285641917611676</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>532</v>
@@ -1546,19 +1546,19 @@
         <v>557656</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>542878</v>
+        <v>541624</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>569466</v>
+        <v>569275</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.923937431269485</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8994525228744984</v>
+        <v>0.8973752890439561</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9435032067184025</v>
+        <v>0.9431872820163351</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>973</v>
@@ -1567,19 +1567,19 @@
         <v>1013355</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>990903</v>
+        <v>993406</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1029680</v>
+        <v>1031807</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.9158228799085656</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8955317393829522</v>
+        <v>0.8977937014077531</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.930576129388535</v>
+        <v>0.9324984262183655</v>
       </c>
     </row>
     <row r="16">
@@ -1596,19 +1596,19 @@
         <v>10359</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5290</v>
+        <v>5187</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18545</v>
+        <v>18158</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02059800972771221</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01051898392408762</v>
+        <v>0.01031429718533427</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0368730395242245</v>
+        <v>0.03610340994192152</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1617,19 +1617,19 @@
         <v>12255</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6305</v>
+        <v>6402</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21957</v>
+        <v>21224</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0203047147688127</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01044645367500127</v>
+        <v>0.01060667204948319</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03637862241534735</v>
+        <v>0.03516406418983846</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1638,19 +1638,19 @@
         <v>22615</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14227</v>
+        <v>14092</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34674</v>
+        <v>33419</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02043802518521698</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01285736376126233</v>
+        <v>0.01273542118125422</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03133677974795998</v>
+        <v>0.03020224975421787</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>35121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24627</v>
+        <v>25247</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49368</v>
+        <v>48429</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06983165827298463</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04896579930002064</v>
+        <v>0.05020021146546793</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09816079469672806</v>
+        <v>0.09629339315308201</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1688,19 +1688,19 @@
         <v>32636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22080</v>
+        <v>22939</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45405</v>
+        <v>45087</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.054071769295788</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03658261538729438</v>
+        <v>0.03800619814484476</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07522719359180834</v>
+        <v>0.07470069044962824</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>64</v>
@@ -1709,19 +1709,19 @@
         <v>67756</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53185</v>
+        <v>53179</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85231</v>
+        <v>85962</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06123506105476827</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04806580218527257</v>
+        <v>0.04806075269160474</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07702801571680536</v>
+        <v>0.07768798104252723</v>
       </c>
     </row>
     <row r="18">
@@ -1860,19 +1860,19 @@
         <v>362661</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>347794</v>
+        <v>348482</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>374427</v>
+        <v>373813</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8960168536163758</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8592843047817609</v>
+        <v>0.8609850253122383</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9250862940675053</v>
+        <v>0.9235699220007026</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>394</v>
@@ -1881,19 +1881,19 @@
         <v>402688</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>388133</v>
+        <v>389454</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>413478</v>
+        <v>413127</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9168974301295358</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8837567697082389</v>
+        <v>0.8867644380865211</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.941466937887951</v>
+        <v>0.9406667381052738</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>735</v>
@@ -1902,19 +1902,19 @@
         <v>765349</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>747444</v>
+        <v>748338</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>780825</v>
+        <v>781979</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9068831621090878</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8856675744139869</v>
+        <v>0.8867264248381009</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9252219626794569</v>
+        <v>0.9265891255242951</v>
       </c>
     </row>
     <row r="21">
@@ -1931,19 +1931,19 @@
         <v>11029</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5304</v>
+        <v>5338</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20950</v>
+        <v>20583</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02725021898512148</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01310440935973565</v>
+        <v>0.01318931987565598</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05175986339315077</v>
+        <v>0.05085438698253992</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1952,19 +1952,19 @@
         <v>5314</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2055</v>
+        <v>1956</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13125</v>
+        <v>11308</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0120998450064882</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004679213108769248</v>
+        <v>0.004453862497508471</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02988517690754891</v>
+        <v>0.02574859255132555</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -1973,19 +1973,19 @@
         <v>16344</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9667</v>
+        <v>9111</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>28877</v>
+        <v>26825</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01936592338973754</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01145523881775451</v>
+        <v>0.01079586340261409</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03421706701210784</v>
+        <v>0.03178522161747659</v>
       </c>
     </row>
     <row r="22">
@@ -2002,19 +2002,19 @@
         <v>31057</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21708</v>
+        <v>20761</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42647</v>
+        <v>42216</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07673292739850265</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05363437599223398</v>
+        <v>0.05129266812710564</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1053663387777859</v>
+        <v>0.1043029392202253</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -2023,19 +2023,19 @@
         <v>31183</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21909</v>
+        <v>20775</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45106</v>
+        <v>42977</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07100272486397592</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04988506394734719</v>
+        <v>0.04730391879759898</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1027030488814952</v>
+        <v>0.0978558245662383</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -2044,19 +2044,19 @@
         <v>62241</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49214</v>
+        <v>48831</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>78914</v>
+        <v>78094</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07375091450117466</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05831543341596385</v>
+        <v>0.05786100975135732</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09350696566179929</v>
+        <v>0.09253546264953991</v>
       </c>
     </row>
     <row r="23">
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8216</v>
+        <v>7645</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004787679961747299</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02574951911868835</v>
+        <v>0.02395972453248029</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7968</v>
+        <v>8530</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002582990013123698</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01347275036440416</v>
+        <v>0.01442306801268266</v>
       </c>
     </row>
     <row r="25">
@@ -2211,19 +2211,19 @@
         <v>230241</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>218383</v>
+        <v>216015</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>241252</v>
+        <v>240624</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8453912836211146</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8018488331957323</v>
+        <v>0.7931554708369152</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8858189876803293</v>
+        <v>0.8835132703615268</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>276</v>
@@ -2232,19 +2232,19 @@
         <v>281498</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>266156</v>
+        <v>268397</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>291745</v>
+        <v>292271</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8822107802753304</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8341298760283294</v>
+        <v>0.841153333432479</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9143258676669405</v>
+        <v>0.9159751098957845</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>510</v>
@@ -2253,19 +2253,19 @@
         <v>511739</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>492101</v>
+        <v>493709</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>526934</v>
+        <v>527078</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8652556841044275</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8320514601215518</v>
+        <v>0.8347697400759614</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8909483414978026</v>
+        <v>0.8911906909846831</v>
       </c>
     </row>
     <row r="26">
@@ -2282,19 +2282,19 @@
         <v>9173</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4411</v>
+        <v>4461</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17002</v>
+        <v>17109</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03368103169653656</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01619711370445175</v>
+        <v>0.01638047026710215</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06242571014940692</v>
+        <v>0.06282110885291839</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2303,19 +2303,19 @@
         <v>12326</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6648</v>
+        <v>6878</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21692</v>
+        <v>20868</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03862855268489598</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02083494610725326</v>
+        <v>0.02155627162705304</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06798269337859073</v>
+        <v>0.06539893811623664</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -2324,19 +2324,19 @@
         <v>21499</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13125</v>
+        <v>13898</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32391</v>
+        <v>31499</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03635025716790418</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0221913862777595</v>
+        <v>0.02349894088290296</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05476710986089298</v>
+        <v>0.05325976935107048</v>
       </c>
     </row>
     <row r="27">
@@ -2353,19 +2353,19 @@
         <v>32935</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>23204</v>
+        <v>24077</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>44022</v>
+        <v>44956</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1209276846823488</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08519916158239381</v>
+        <v>0.08840502476453271</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.161638274972556</v>
+        <v>0.1650671841399621</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -2374,19 +2374,19 @@
         <v>23731</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15864</v>
+        <v>15030</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>35115</v>
+        <v>34200</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07437298707802631</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04971817383355717</v>
+        <v>0.04710431688577504</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1100505188928184</v>
+        <v>0.1071834425562476</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>56</v>
@@ -2395,19 +2395,19 @@
         <v>56666</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>44715</v>
+        <v>44217</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>72303</v>
+        <v>72557</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09581106871454453</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07560466208221828</v>
+        <v>0.07476337418722172</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.122250444068779</v>
+        <v>0.1226805009203623</v>
       </c>
     </row>
     <row r="28">
@@ -2546,19 +2546,19 @@
         <v>184069</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>171243</v>
+        <v>174179</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>193281</v>
+        <v>193192</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8617322358221274</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8016869976638978</v>
+        <v>0.8154331370274044</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9048605364619168</v>
+        <v>0.9044443961677051</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>236</v>
@@ -2567,19 +2567,19 @@
         <v>218317</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>207306</v>
+        <v>207158</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>227417</v>
+        <v>226211</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8840983224453465</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8395075131845852</v>
+        <v>0.8389064309451779</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9209496446106671</v>
+        <v>0.9160637927988032</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>426</v>
@@ -2588,19 +2588,19 @@
         <v>402386</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>387972</v>
+        <v>387505</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>415015</v>
+        <v>414816</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8737247143682153</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8424275142510733</v>
+        <v>0.8414121165659345</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9011462018576374</v>
+        <v>0.9007146911957109</v>
       </c>
     </row>
     <row r="31">
@@ -2617,19 +2617,19 @@
         <v>5717</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2659</v>
+        <v>1923</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12052</v>
+        <v>11415</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02676531688231736</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01244760524395603</v>
+        <v>0.009001038413796562</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05642442336010177</v>
+        <v>0.05344183346511452</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2638,19 +2638,19 @@
         <v>4144</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11066</v>
+        <v>10258</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01678124895389892</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.004573764555554956</v>
+        <v>0.004577525373255104</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04481270133512352</v>
+        <v>0.04153913090101423</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -2659,19 +2659,19 @@
         <v>9861</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4927</v>
+        <v>4944</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>17819</v>
+        <v>17357</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02141195657162529</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01069753373813057</v>
+        <v>0.01073421516479783</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03869071850773152</v>
+        <v>0.03768923215416174</v>
       </c>
     </row>
     <row r="32">
@@ -2688,19 +2688,19 @@
         <v>23817</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16069</v>
+        <v>15758</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>35992</v>
+        <v>33854</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1115024472955552</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07522891449110276</v>
+        <v>0.07377311006552119</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1684981104161475</v>
+        <v>0.1584880302410626</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -2709,19 +2709,19 @@
         <v>24477</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16507</v>
+        <v>17030</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>34836</v>
+        <v>34816</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09912042860075455</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06684644966050386</v>
+        <v>0.06896376320366762</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.141070288489081</v>
+        <v>0.1409896516822317</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>51</v>
@@ -2730,19 +2730,19 @@
         <v>48294</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>36641</v>
+        <v>36744</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>62002</v>
+        <v>61447</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1048633290601594</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07956070218876612</v>
+        <v>0.07978509629418748</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1346275487728017</v>
+        <v>0.1334229474098699</v>
       </c>
     </row>
     <row r="33">
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4649</v>
+        <v>5393</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005156522779230068</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0223269939872129</v>
+        <v>0.02590328490951143</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5992</v>
+        <v>5363</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.003205131371963776</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01788660063430891</v>
+        <v>0.01601097219756502</v>
       </c>
     </row>
     <row r="35">
@@ -2897,19 +2897,19 @@
         <v>105509</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>95763</v>
+        <v>96411</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>113231</v>
+        <v>113420</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.832326665435897</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.7554407148950224</v>
+        <v>0.7605519897128804</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8932435909846815</v>
+        <v>0.8947343119291749</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>168</v>
@@ -2918,19 +2918,19 @@
         <v>192331</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>183204</v>
+        <v>182283</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>199303</v>
+        <v>198871</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.9237432403941455</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.8799086199074061</v>
+        <v>0.875486492623165</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.9572299296784075</v>
+        <v>0.9551576472699338</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>277</v>
@@ -2939,19 +2939,19 @@
         <v>297840</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>284950</v>
+        <v>284467</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>309070</v>
+        <v>308128</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.8891483153850337</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.8506694623586516</v>
+        <v>0.8492264690063435</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.9226735769656901</v>
+        <v>0.9198615848382885</v>
       </c>
     </row>
     <row r="36">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6044</v>
+        <v>6489</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01508238064249706</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0476816021202946</v>
+        <v>0.05119103111601948</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6731</v>
+        <v>6766</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005707650144674182</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02009314983748327</v>
+        <v>0.02019757475003562</v>
       </c>
     </row>
     <row r="37">
@@ -3031,19 +3031,19 @@
         <v>19343</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12088</v>
+        <v>11394</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28264</v>
+        <v>28518</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.152590953921606</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09535687507461744</v>
+        <v>0.08988310832805606</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2229621670086932</v>
+        <v>0.2249673706880038</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -3052,19 +3052,19 @@
         <v>14804</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7853</v>
+        <v>8963</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23571</v>
+        <v>24734</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07110023682662443</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0377166148648596</v>
+        <v>0.04304758846044322</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1132080920594573</v>
+        <v>0.1187925336667589</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>32</v>
@@ -3073,19 +3073,19 @@
         <v>34147</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>23540</v>
+        <v>24476</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>46727</v>
+        <v>46911</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1019389030983284</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07027522508129318</v>
+        <v>0.07306822148361844</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1394944604982249</v>
+        <v>0.1400433684143512</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>2635</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>7836</v>
+        <v>7879</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001072399745460197</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.000352873296110889</v>
+        <v>0.0003540539245578476</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.003188954993628127</v>
+        <v>0.003206727287572992</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>6</v>
@@ -3198,19 +3198,19 @@
         <v>6796</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2130</v>
+        <v>2428</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>14023</v>
+        <v>14933</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.002479488326358917</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0007770843008509324</v>
+        <v>0.00088568602589808</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.005116034289071539</v>
+        <v>0.005448081171732487</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>9</v>
@@ -3219,19 +3219,19 @@
         <v>9431</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>4647</v>
+        <v>4776</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>17588</v>
+        <v>18140</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.001814363146576517</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0008940175927872087</v>
+        <v>0.0009188427016454306</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.003383573619569023</v>
+        <v>0.003489868164980896</v>
       </c>
     </row>
     <row r="40">
@@ -3248,19 +3248,19 @@
         <v>2221956</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2191134</v>
+        <v>2187643</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2249120</v>
+        <v>2248414</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.9043060430012227</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.8917620579419266</v>
+        <v>0.8903410989718291</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.9153616284585351</v>
+        <v>0.9150739513123993</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2447</v>
@@ -3269,19 +3269,19 @@
         <v>2500664</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2469626</v>
+        <v>2468762</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2529443</v>
+        <v>2530431</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.9123392065496956</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.901015269264122</v>
+        <v>0.9007001952954283</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.9228386278390514</v>
+        <v>0.9231992664824866</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4627</v>
@@ -3290,19 +3290,19 @@
         <v>4722620</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4681638</v>
+        <v>4675509</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4763967</v>
+        <v>4763300</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.9085419620677692</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.9006578229431329</v>
+        <v>0.899478724723315</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.9164962040139774</v>
+        <v>0.916367924996874</v>
       </c>
     </row>
     <row r="41">
@@ -3319,19 +3319,19 @@
         <v>55875</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>41743</v>
+        <v>42692</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>71831</v>
+        <v>71276</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0227404425092456</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01698889761415897</v>
+        <v>0.01737503496148966</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02923407359926145</v>
+        <v>0.02900841039081318</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>47</v>
@@ -3340,19 +3340,19 @@
         <v>49688</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>36849</v>
+        <v>37138</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>66000</v>
+        <v>66586</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01812828168666321</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01344384042809717</v>
+        <v>0.01354920616960035</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02407945747517348</v>
+        <v>0.02429331246279512</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>101</v>
@@ -3361,19 +3361,19 @@
         <v>105564</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>85501</v>
+        <v>86807</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>127338</v>
+        <v>124925</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02030843177667823</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01644879092950126</v>
+        <v>0.01670005178609766</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02449741058928227</v>
+        <v>0.02403317966338461</v>
       </c>
     </row>
     <row r="42">
@@ -3390,19 +3390,19 @@
         <v>176618</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>152634</v>
+        <v>152715</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>204780</v>
+        <v>208225</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07188111474407147</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06212011698538113</v>
+        <v>0.06215307489897698</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08334249177166811</v>
+        <v>0.08474476885192228</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>179</v>
@@ -3411,19 +3411,19 @@
         <v>183788</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>156274</v>
+        <v>159756</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>209062</v>
+        <v>211781</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.06705302343728228</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05701489595778381</v>
+        <v>0.05828523405538037</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07627377535421213</v>
+        <v>0.07726581949087856</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>351</v>
@@ -3432,19 +3432,19 @@
         <v>360406</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>323709</v>
+        <v>323705</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>399006</v>
+        <v>400081</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06933524300897614</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06227542859505823</v>
+        <v>0.06227469737204543</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.0767611010805969</v>
+        <v>0.0769679161833073</v>
       </c>
     </row>
     <row r="43">
@@ -3826,19 +3826,19 @@
         <v>327164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>312874</v>
+        <v>313300</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>339894</v>
+        <v>341288</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.86069792528469</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8231036879839559</v>
+        <v>0.8242250976291765</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8941867552641458</v>
+        <v>0.897855365826375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>310</v>
@@ -3847,19 +3847,19 @@
         <v>317505</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302648</v>
+        <v>303199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>329791</v>
+        <v>329309</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8603129915300464</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8200584227542334</v>
+        <v>0.8215501793121399</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8936043784155735</v>
+        <v>0.8922992984489966</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>633</v>
@@ -3868,19 +3868,19 @@
         <v>644669</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>623993</v>
+        <v>624756</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>662600</v>
+        <v>661758</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8605082995119396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8329106424523927</v>
+        <v>0.833928531994285</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8844432137541358</v>
+        <v>0.8833191199838983</v>
       </c>
     </row>
     <row r="6">
@@ -3897,19 +3897,19 @@
         <v>12440</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6769</v>
+        <v>6619</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22963</v>
+        <v>22109</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03272576829923552</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01780859922819831</v>
+        <v>0.01741263335618782</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06040935538405215</v>
+        <v>0.05816403216806102</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -3918,19 +3918,19 @@
         <v>4887</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1931</v>
+        <v>1900</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10762</v>
+        <v>11708</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01324150036254943</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005232012726893113</v>
+        <v>0.005148264741238043</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02916042051905386</v>
+        <v>0.03172541616786628</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -3939,19 +3939,19 @@
         <v>17326</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9956</v>
+        <v>10198</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26899</v>
+        <v>29004</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02312744308249677</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01328991876423405</v>
+        <v>0.01361225164791054</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03590543116426115</v>
+        <v>0.03871496367902608</v>
       </c>
     </row>
     <row r="7">
@@ -3968,19 +3968,19 @@
         <v>40511</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30480</v>
+        <v>29511</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53960</v>
+        <v>53270</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1065763064160744</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08018622062335568</v>
+        <v>0.07763691650934003</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1419564124519376</v>
+        <v>0.1401427802616463</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -3989,19 +3989,19 @@
         <v>46666</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35637</v>
+        <v>35934</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62146</v>
+        <v>60559</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1264455081074042</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09656202305993361</v>
+        <v>0.09736811181910369</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1683907117728858</v>
+        <v>0.1640924267879169</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -4010,19 +4010,19 @@
         <v>87177</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70387</v>
+        <v>72262</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>106344</v>
+        <v>105927</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1163642574055636</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09395342727283945</v>
+        <v>0.09645565852070941</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1419482115011532</v>
+        <v>0.1413914807798548</v>
       </c>
     </row>
     <row r="8">
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6496</v>
+        <v>6465</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002173535819963745</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01094622651134646</v>
+        <v>0.01089364984589847</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6438</v>
+        <v>6470</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001118436493505131</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005582308949007826</v>
+        <v>0.00561001666189152</v>
       </c>
     </row>
     <row r="10">
@@ -4177,19 +4177,19 @@
         <v>529832</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>513103</v>
+        <v>512467</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>543044</v>
+        <v>544566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.892786184446606</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8645977424070924</v>
+        <v>0.8635254225079195</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9150493459020846</v>
+        <v>0.9176140905259075</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>450</v>
@@ -4198,19 +4198,19 @@
         <v>483659</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>465779</v>
+        <v>465881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>499151</v>
+        <v>499180</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8639069270327605</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.831969283233179</v>
+        <v>0.8321523762768227</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8915774656157361</v>
+        <v>0.8916294885959849</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>967</v>
@@ -4219,19 +4219,19 @@
         <v>1013492</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>988892</v>
+        <v>989610</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1035770</v>
+        <v>1034900</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8787673287341284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8574370645069078</v>
+        <v>0.8580600844600924</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.898083894463523</v>
+        <v>0.8973296971933314</v>
       </c>
     </row>
     <row r="11">
@@ -4248,19 +4248,19 @@
         <v>11407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5697</v>
+        <v>5823</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19870</v>
+        <v>21081</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01922117667438704</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009598897465113432</v>
+        <v>0.009812738522084851</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03348092988191294</v>
+        <v>0.03552205378713405</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -4269,19 +4269,19 @@
         <v>8912</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3940</v>
+        <v>4030</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15904</v>
+        <v>15951</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01591940378982675</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007036850087788158</v>
+        <v>0.007198769721246472</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0284067597612328</v>
+        <v>0.02849114392647594</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -4290,19 +4290,19 @@
         <v>20319</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12593</v>
+        <v>12699</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32835</v>
+        <v>30667</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0176183973161536</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01091871869236313</v>
+        <v>0.0110108627547639</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02847056436037229</v>
+        <v>0.02659050658655792</v>
       </c>
     </row>
     <row r="12">
@@ -4319,19 +4319,19 @@
         <v>50930</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39561</v>
+        <v>38079</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>67565</v>
+        <v>65954</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08581910305904331</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06666204736929958</v>
+        <v>0.06416370857757274</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1138496143000532</v>
+        <v>0.1111347778572625</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>64</v>
@@ -4340,19 +4340,19 @@
         <v>67279</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>52480</v>
+        <v>52358</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>85154</v>
+        <v>83096</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1201736691774127</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0937384158943685</v>
+        <v>0.09352048314042324</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1521007542988048</v>
+        <v>0.1484252125644634</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>111</v>
@@ -4361,19 +4361,19 @@
         <v>118210</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>98132</v>
+        <v>99190</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>141714</v>
+        <v>141179</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1024958374562128</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08508704598408742</v>
+        <v>0.08600451976712149</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.122875501313941</v>
+        <v>0.1224123059825814</v>
       </c>
     </row>
     <row r="13">
@@ -4512,19 +4512,19 @@
         <v>496309</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>475510</v>
+        <v>478010</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>513636</v>
+        <v>514104</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8478040930300986</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8122753976235614</v>
+        <v>0.816545433351509</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8774031034273049</v>
+        <v>0.8782025386321956</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>561</v>
@@ -4533,19 +4533,19 @@
         <v>593088</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>576602</v>
+        <v>575295</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>609206</v>
+        <v>607271</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.9019362313922629</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8768652153769985</v>
+        <v>0.874878327843436</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9264474180903816</v>
+        <v>0.9235049154510813</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1039</v>
@@ -4554,19 +4554,19 @@
         <v>1089397</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1065194</v>
+        <v>1063546</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1112304</v>
+        <v>1111936</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8764416191001896</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8569696255256466</v>
+        <v>0.8556439948319357</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.894870877633527</v>
+        <v>0.8945747880156996</v>
       </c>
     </row>
     <row r="16">
@@ -4583,19 +4583,19 @@
         <v>24601</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15818</v>
+        <v>16782</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37753</v>
+        <v>36833</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04202331185081529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02702128405992333</v>
+        <v>0.02866764498604124</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06449108202847169</v>
+        <v>0.06291895181224473</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -4604,19 +4604,19 @@
         <v>14766</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7871</v>
+        <v>7853</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25818</v>
+        <v>25495</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02245602572826903</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01197044258794436</v>
+        <v>0.01194309654745145</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03926284766209088</v>
+        <v>0.03877132866616009</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -4625,19 +4625,19 @@
         <v>39367</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27187</v>
+        <v>28363</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54165</v>
+        <v>56659</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03167163014361319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02187250173736694</v>
+        <v>0.02281821288346953</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04357689373333373</v>
+        <v>0.04558307222874523</v>
       </c>
     </row>
     <row r="17">
@@ -4654,19 +4654,19 @@
         <v>64496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49976</v>
+        <v>50051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80856</v>
+        <v>81205</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1101725951190861</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08536978500875168</v>
+        <v>0.08549811360404488</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1381196942925824</v>
+        <v>0.1387159324502989</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -4675,19 +4675,19 @@
         <v>49718</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35945</v>
+        <v>36531</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64093</v>
+        <v>64892</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07560774287946814</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05466327491839659</v>
+        <v>0.05555486983819531</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09746931219064731</v>
+        <v>0.09868500382484392</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>107</v>
@@ -4696,19 +4696,19 @@
         <v>114213</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>93897</v>
+        <v>95576</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133993</v>
+        <v>136903</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09188675075619721</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07554209738491478</v>
+        <v>0.07689298032726657</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1078001491425725</v>
+        <v>0.1101409968803352</v>
       </c>
     </row>
     <row r="18">
@@ -4847,19 +4847,19 @@
         <v>449940</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>429619</v>
+        <v>430091</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>467813</v>
+        <v>469509</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8336687277718237</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7960166977989426</v>
+        <v>0.7968909906245524</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8667847746394642</v>
+        <v>0.8699266827993971</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>427</v>
@@ -4868,19 +4868,19 @@
         <v>486126</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>468251</v>
+        <v>468477</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>502022</v>
+        <v>503357</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8661822666715012</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8343332100827451</v>
+        <v>0.8347357175424901</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8945061637833395</v>
+        <v>0.8968858498342531</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>829</v>
@@ -4889,19 +4889,19 @@
         <v>936066</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>907432</v>
+        <v>908660</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>959791</v>
+        <v>960105</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8502432166290385</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.824234570739511</v>
+        <v>0.8253500320093362</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8717933112222505</v>
+        <v>0.8720783689149403</v>
       </c>
     </row>
     <row r="21">
@@ -4918,19 +4918,19 @@
         <v>18238</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10772</v>
+        <v>9835</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30968</v>
+        <v>29215</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03379220904575764</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01995970880766294</v>
+        <v>0.01822259895084833</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05737867601120375</v>
+        <v>0.05413069314415535</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -4939,19 +4939,19 @@
         <v>27184</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17344</v>
+        <v>16632</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40139</v>
+        <v>41071</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04843706507277672</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03090398660635085</v>
+        <v>0.02963477992906759</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07151915693272604</v>
+        <v>0.07318061510218199</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>36</v>
@@ -4960,19 +4960,19 @@
         <v>45422</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33078</v>
+        <v>31647</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>62061</v>
+        <v>62667</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04125774528849957</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03004495972896133</v>
+        <v>0.02874555977984263</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0563713910557714</v>
+        <v>0.05692165354025874</v>
       </c>
     </row>
     <row r="22">
@@ -4989,19 +4989,19 @@
         <v>71533</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56236</v>
+        <v>53951</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>90216</v>
+        <v>88958</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1325390631824187</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1041974092793221</v>
+        <v>0.09996291009799842</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1671560568423922</v>
+        <v>0.1648251810930534</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -5010,19 +5010,19 @@
         <v>47918</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35103</v>
+        <v>33530</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62814</v>
+        <v>61058</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08538066825572205</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06254684658902815</v>
+        <v>0.05974404726415231</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1119232096092611</v>
+        <v>0.1087936502239941</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -5031,19 +5031,19 @@
         <v>119451</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>98023</v>
+        <v>99931</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>142325</v>
+        <v>141928</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.108499038082462</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08903580245481568</v>
+        <v>0.09076876627211389</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1292757327981237</v>
+        <v>0.1289157635495829</v>
       </c>
     </row>
     <row r="23">
@@ -5182,19 +5182,19 @@
         <v>277550</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>258290</v>
+        <v>260431</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>293767</v>
+        <v>295743</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7658385421154028</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7126952708236883</v>
+        <v>0.7186020613124551</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8105850574637822</v>
+        <v>0.8160377435087049</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>311</v>
@@ -5203,19 +5203,19 @@
         <v>343525</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>326732</v>
+        <v>328218</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>356458</v>
+        <v>356212</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8771637851877383</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8342837895222814</v>
+        <v>0.8380786849203234</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9101853821189234</v>
+        <v>0.9095577560543038</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>567</v>
@@ -5224,19 +5224,19 @@
         <v>621075</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>598081</v>
+        <v>597772</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>641885</v>
+        <v>641882</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8236580728169054</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7931641921596202</v>
+        <v>0.7927535981146736</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8512555217781824</v>
+        <v>0.8512516992224972</v>
       </c>
     </row>
     <row r="26">
@@ -5253,19 +5253,19 @@
         <v>19340</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10542</v>
+        <v>11072</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>31887</v>
+        <v>31789</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05336374534201289</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02908704584217652</v>
+        <v>0.03055122483302889</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08798481960417114</v>
+        <v>0.08771561003026289</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -5274,19 +5274,19 @@
         <v>11117</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5990</v>
+        <v>5154</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21224</v>
+        <v>21828</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02838608434850976</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01529491063921904</v>
+        <v>0.01316107940340601</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05419388012303892</v>
+        <v>0.05573577593070522</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -5295,19 +5295,19 @@
         <v>30457</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19296</v>
+        <v>19352</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>44296</v>
+        <v>44512</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04039097657179619</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02559061585533816</v>
+        <v>0.025663836608389</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05874446305540413</v>
+        <v>0.05903153161441883</v>
       </c>
     </row>
     <row r="27">
@@ -5324,19 +5324,19 @@
         <v>65523</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>51669</v>
+        <v>49823</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>81010</v>
+        <v>81982</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1807977125425843</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.142570711063187</v>
+        <v>0.1374757899073042</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2235293183799153</v>
+        <v>0.2262102513830722</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>33</v>
@@ -5345,19 +5345,19 @@
         <v>36990</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>25790</v>
+        <v>25614</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>50690</v>
+        <v>49713</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09445013046375193</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0658523775211928</v>
+        <v>0.06540196439414248</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1294317277719117</v>
+        <v>0.1269371857509685</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>96</v>
@@ -5366,19 +5366,19 @@
         <v>102513</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>83112</v>
+        <v>82667</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>122670</v>
+        <v>122576</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1359509506112984</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1102218497556093</v>
+        <v>0.1096319423441039</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1626828547733912</v>
+        <v>0.162558573121266</v>
       </c>
     </row>
     <row r="28">
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5562</v>
+        <v>5504</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.00386356387371603</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02126890963597247</v>
+        <v>0.02104678528532276</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4667</v>
+        <v>4514</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001800395752595212</v>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.008316349067231752</v>
+        <v>0.008043722174654528</v>
       </c>
     </row>
     <row r="30">
@@ -5533,19 +5533,19 @@
         <v>196993</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>182641</v>
+        <v>180387</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>210940</v>
+        <v>210894</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7533477285513818</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6984622680920748</v>
+        <v>0.6898412076472581</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8066841386933741</v>
+        <v>0.8065107634426983</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>245</v>
@@ -5554,19 +5554,19 @@
         <v>254460</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>240462</v>
+        <v>241821</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>265325</v>
+        <v>266549</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8491740295347532</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8024588913113349</v>
+        <v>0.8069958391720895</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8854324147607612</v>
+        <v>0.8895151907120931</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>424</v>
@@ -5575,19 +5575,19 @@
         <v>451453</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>430477</v>
+        <v>430892</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>470084</v>
+        <v>469750</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8045195936521039</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.767138962061619</v>
+        <v>0.7678789243254511</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8377215710480634</v>
+        <v>0.8371260634504124</v>
       </c>
     </row>
     <row r="31">
@@ -5604,19 +5604,19 @@
         <v>7183</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2952</v>
+        <v>2879</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16107</v>
+        <v>15502</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0274684993532922</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01129043138860397</v>
+        <v>0.01101028979390581</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06159841016929628</v>
+        <v>0.05928146758540292</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -5625,19 +5625,19 @@
         <v>6614</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2920</v>
+        <v>2813</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>14506</v>
+        <v>13102</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02207309675650658</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.009743027746713276</v>
+        <v>0.009388321125288873</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.048409126285039</v>
+        <v>0.04372457723062102</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>13</v>
@@ -5646,19 +5646,19 @@
         <v>13797</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7704</v>
+        <v>7529</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>22635</v>
+        <v>22753</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0245873194369902</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01372961793050424</v>
+        <v>0.01341683084027359</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04033721730608867</v>
+        <v>0.04054757094437034</v>
       </c>
     </row>
     <row r="32">
@@ -5675,19 +5675,19 @@
         <v>56304</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>42537</v>
+        <v>43175</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>70440</v>
+        <v>72355</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.21532020822161</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1626726828006804</v>
+        <v>0.1651108105316136</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2693799669432535</v>
+        <v>0.2767009187386302</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>38</v>
@@ -5696,19 +5696,19 @@
         <v>38582</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27893</v>
+        <v>27050</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>50969</v>
+        <v>50626</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1287528737087403</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09308212836943215</v>
+        <v>0.09027043514715301</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1700929029480061</v>
+        <v>0.1689462252953179</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>90</v>
@@ -5717,19 +5717,19 @@
         <v>94886</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>77598</v>
+        <v>77499</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>114072</v>
+        <v>114630</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1690926911583106</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1382853450016873</v>
+        <v>0.1381089033885711</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2032836516361053</v>
+        <v>0.2042782567714686</v>
       </c>
     </row>
     <row r="33">
@@ -5868,19 +5868,19 @@
         <v>135672</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>122018</v>
+        <v>121562</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>147878</v>
+        <v>147042</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7336572421422325</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6598183561116736</v>
+        <v>0.6573530909913275</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7996597330521068</v>
+        <v>0.7951381485271383</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>216</v>
@@ -5889,19 +5889,19 @@
         <v>239334</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>222174</v>
+        <v>221807</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>252154</v>
+        <v>253530</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.7860298278273206</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.7296720401734496</v>
+        <v>0.7284675110312584</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.8281321816638558</v>
+        <v>0.8326515935061254</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>338</v>
@@ -5910,19 +5910,19 @@
         <v>375007</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>355486</v>
+        <v>354547</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>392793</v>
+        <v>394991</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.7662406353796588</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.7263550665021818</v>
+        <v>0.7244368286427905</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.8025833043714876</v>
+        <v>0.8070751209452485</v>
       </c>
     </row>
     <row r="36">
@@ -5939,19 +5939,19 @@
         <v>4186</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1038</v>
+        <v>1070</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10110</v>
+        <v>9956</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02263464310841995</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005613642603868163</v>
+        <v>0.005786993933069699</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05467037348831893</v>
+        <v>0.05383535438859346</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -5960,19 +5960,19 @@
         <v>7441</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2246</v>
+        <v>2260</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>15612</v>
+        <v>16454</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02443695371316875</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.007377318880211851</v>
+        <v>0.007422438564400616</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05127250901623446</v>
+        <v>0.05403991299645759</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>10</v>
@@ -5981,19 +5981,19 @@
         <v>11626</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5446</v>
+        <v>6040</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>20098</v>
+        <v>20565</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02375594339180914</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01112693828080929</v>
+        <v>0.01234060551202257</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04106522285854877</v>
+        <v>0.04201944859691122</v>
       </c>
     </row>
     <row r="37">
@@ -6010,19 +6010,19 @@
         <v>45068</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>33037</v>
+        <v>33388</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>57999</v>
+        <v>58746</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2437081147493475</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1786478427643746</v>
+        <v>0.1805502144872929</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.313630876415852</v>
+        <v>0.3176725576153622</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>53</v>
@@ -6031,19 +6031,19 @@
         <v>57710</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>45175</v>
+        <v>44421</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>73985</v>
+        <v>71847</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1895332184595107</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1483651367094643</v>
+        <v>0.1458877066203309</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2429840999878298</v>
+        <v>0.2359612265963245</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>92</v>
@@ -6052,19 +6052,19 @@
         <v>102778</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>86395</v>
+        <v>83710</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>121672</v>
+        <v>123212</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2100034212285321</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1765286463852411</v>
+        <v>0.1710428164388285</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2486095065553301</v>
+        <v>0.2517549695229557</v>
       </c>
     </row>
     <row r="38">
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>8473</v>
+        <v>7853</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.0007911174264868012</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.00291428856181574</v>
+        <v>0.002700906773662856</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>7880</v>
+        <v>7776</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0003801337771334893</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.001302311885099186</v>
+        <v>0.001285008656701486</v>
       </c>
     </row>
     <row r="40">
@@ -6219,19 +6219,19 @@
         <v>2413461</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2370553</v>
+        <v>2367440</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2455331</v>
+        <v>2453716</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.8300754519090485</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.8153179547117188</v>
+        <v>0.8142470688756365</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.8444759212293198</v>
+        <v>0.8439205841079254</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2520</v>
@@ -6240,19 +6240,19 @@
         <v>2717697</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2676551</v>
+        <v>2678786</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2754775</v>
+        <v>2755728</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.8645502345506777</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.8514609649876584</v>
+        <v>0.8521717958835268</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.876345430107483</v>
+        <v>0.8766486158263601</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4797</v>
@@ -6261,19 +6261,19 @@
         <v>5131158</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5071652</v>
+        <v>5070688</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>5186134</v>
+        <v>5185927</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.8479850207117974</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.8381508915980814</v>
+        <v>0.8379915249096342</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.8570704523925454</v>
+        <v>0.8570361684121811</v>
       </c>
     </row>
     <row r="41">
@@ -6290,19 +6290,19 @@
         <v>97393</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>77958</v>
+        <v>77920</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>120635</v>
+        <v>120520</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03349708203040299</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0268124558156302</v>
+        <v>0.02679931584645081</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04149084177997497</v>
+        <v>0.0414509822226426</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>70</v>
@@ -6311,19 +6311,19 @@
         <v>80922</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>65001</v>
+        <v>60480</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>103588</v>
+        <v>102658</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02574278967953221</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02067790218671582</v>
+        <v>0.01923995652957128</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03295324257673624</v>
+        <v>0.03265757630623586</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>154</v>
@@ -6332,19 +6332,19 @@
         <v>178315</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>152639</v>
+        <v>151997</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>209314</v>
+        <v>209980</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02946874532359362</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02522541662159056</v>
+        <v>0.02511923819665365</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03459161030362384</v>
+        <v>0.03470167275567947</v>
       </c>
     </row>
     <row r="42">
@@ -6361,19 +6361,19 @@
         <v>394365</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>355894</v>
+        <v>356980</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>432958</v>
+        <v>436061</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1356363486340617</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1224048164998043</v>
+        <v>0.1227780857337424</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.148909875298396</v>
+        <v>0.1499770252856863</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>321</v>
@@ -6382,19 +6382,19 @@
         <v>344862</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>308144</v>
+        <v>310654</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>381180</v>
+        <v>380251</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1097069757697901</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09802637778800402</v>
+        <v>0.09882475242319412</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1212606276521584</v>
+        <v>0.1209648159383093</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>687</v>
@@ -6403,19 +6403,19 @@
         <v>739227</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>691047</v>
+        <v>687767</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>791007</v>
+        <v>793048</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1221661001874755</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1142036816159075</v>
+        <v>0.1136616961338078</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1307232764566861</v>
+        <v>0.1310605563686676</v>
       </c>
     </row>
     <row r="43">
@@ -6797,19 +6797,19 @@
         <v>305556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>290340</v>
+        <v>292519</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>318086</v>
+        <v>317618</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8659890636331223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8228646916564458</v>
+        <v>0.8290404852563399</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9015028411904468</v>
+        <v>0.9001750436142069</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>303</v>
@@ -6818,19 +6818,19 @@
         <v>296802</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281979</v>
+        <v>283470</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>309188</v>
+        <v>309146</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8433546911956178</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8012373074941652</v>
+        <v>0.8054737366383486</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8785495817858413</v>
+        <v>0.8784298565377413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>590</v>
@@ -6839,19 +6839,19 @@
         <v>602357</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>581835</v>
+        <v>582861</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>620446</v>
+        <v>620012</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8546864810336943</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8255670697539252</v>
+        <v>0.8270233232707419</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8803527330942272</v>
+        <v>0.8797363496833905</v>
       </c>
     </row>
     <row r="6">
@@ -6868,19 +6868,19 @@
         <v>5933</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2131</v>
+        <v>2179</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13217</v>
+        <v>13901</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01681583335007805</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006040887011868291</v>
+        <v>0.006175474683836922</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03745840345199115</v>
+        <v>0.03939877243856218</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -6889,19 +6889,19 @@
         <v>6734</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2884</v>
+        <v>2858</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13539</v>
+        <v>13611</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01913306869695342</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008196039234774211</v>
+        <v>0.008121231820656525</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03846944299150162</v>
+        <v>0.03867459290760398</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -6910,19 +6910,19 @@
         <v>12667</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6597</v>
+        <v>6113</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21272</v>
+        <v>20725</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01797295595123204</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009360986906096944</v>
+        <v>0.008673458989089495</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03018291171878695</v>
+        <v>0.02940741545972995</v>
       </c>
     </row>
     <row r="7">
@@ -6939,19 +6939,19 @@
         <v>41351</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29695</v>
+        <v>29753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55623</v>
+        <v>53558</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1171951030167996</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08415984783018107</v>
+        <v>0.08432544811744686</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1576446749978954</v>
+        <v>0.1517906496937423</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -6960,19 +6960,19 @@
         <v>48395</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35968</v>
+        <v>37325</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61909</v>
+        <v>61082</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1375122401074287</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.102203505360217</v>
+        <v>0.1060577102012521</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1759132193612013</v>
+        <v>0.173562826163056</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -6981,19 +6981,19 @@
         <v>89746</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72617</v>
+        <v>72675</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108950</v>
+        <v>107921</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1273405630150737</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1030362769630346</v>
+        <v>0.1031188015760838</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1545896148767059</v>
+        <v>0.1531288724252889</v>
       </c>
     </row>
     <row r="8">
@@ -7132,19 +7132,19 @@
         <v>454841</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>442099</v>
+        <v>443204</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>465568</v>
+        <v>465915</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9224532401245166</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8966105421425468</v>
+        <v>0.898851927849231</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9442078428138078</v>
+        <v>0.9449115096656804</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>441</v>
@@ -7153,19 +7153,19 @@
         <v>428052</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>411698</v>
+        <v>412447</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>442083</v>
+        <v>443534</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8617580678352862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8288338478455141</v>
+        <v>0.8303406637572669</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8900044429169147</v>
+        <v>0.8929253777978601</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>880</v>
@@ -7174,19 +7174,19 @@
         <v>882893</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>863166</v>
+        <v>860837</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>900554</v>
+        <v>900771</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8919939903404565</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8720634052363011</v>
+        <v>0.8697108394938023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9098372028432943</v>
+        <v>0.9100558130629088</v>
       </c>
     </row>
     <row r="11">
@@ -7203,19 +7203,19 @@
         <v>5084</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11317</v>
+        <v>11307</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01031048576831834</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003846509501262758</v>
+        <v>0.003834688957972127</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02295260203393101</v>
+        <v>0.02293238459771372</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -7224,19 +7224,19 @@
         <v>16120</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9430</v>
+        <v>9697</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25203</v>
+        <v>25165</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03245374820124061</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01898393864207961</v>
+        <v>0.01952182449170122</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05073966967289324</v>
+        <v>0.05066265214581997</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -7245,19 +7245,19 @@
         <v>21204</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12448</v>
+        <v>13709</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31664</v>
+        <v>32522</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0214228549410153</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01257640222376891</v>
+        <v>0.0138504518657705</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03199022658366155</v>
+        <v>0.03285764976068997</v>
       </c>
     </row>
     <row r="12">
@@ -7274,19 +7274,19 @@
         <v>33153</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23494</v>
+        <v>22735</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45510</v>
+        <v>45487</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06723627410716508</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04764771516974042</v>
+        <v>0.04610834714500404</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09229841633838481</v>
+        <v>0.09225114155224726</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>53</v>
@@ -7295,19 +7295,19 @@
         <v>52547</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38732</v>
+        <v>39570</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>66276</v>
+        <v>66660</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1057881839634732</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07797512655437155</v>
+        <v>0.07966347900339732</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1334263941779823</v>
+        <v>0.1342008477701354</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>84</v>
@@ -7316,19 +7316,19 @@
         <v>85700</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>70977</v>
+        <v>69387</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>105752</v>
+        <v>105341</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08658315471852822</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07170823559349948</v>
+        <v>0.07010242857808929</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1068425862666044</v>
+        <v>0.1064268289269576</v>
       </c>
     </row>
     <row r="13">
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5553</v>
+        <v>5573</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001930840331267273</v>
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009689005629544733</v>
+        <v>0.009725464165180626</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6633</v>
+        <v>5536</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0009801181231510307</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005875283812261982</v>
+        <v>0.004903593145635845</v>
       </c>
     </row>
     <row r="15">
@@ -7483,19 +7483,19 @@
         <v>501668</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>487376</v>
+        <v>486895</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>515966</v>
+        <v>514252</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9024560284125623</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8767462641696551</v>
+        <v>0.8758797259303888</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9281769633468634</v>
+        <v>0.9250937738063443</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>526</v>
@@ -7504,19 +7504,19 @@
         <v>522093</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>507074</v>
+        <v>506490</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>534216</v>
+        <v>534540</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.9110298561996023</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8848232098900762</v>
+        <v>0.8838030604213442</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9321838003362363</v>
+        <v>0.9327497244624878</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1003</v>
@@ -7525,19 +7525,19 @@
         <v>1023762</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1003795</v>
+        <v>1003068</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1042563</v>
+        <v>1041336</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.9068082080634495</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.889122671238877</v>
+        <v>0.8884779920479852</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9234616290727428</v>
+        <v>0.922374480747658</v>
       </c>
     </row>
     <row r="16">
@@ -7554,19 +7554,19 @@
         <v>13356</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6843</v>
+        <v>6558</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22567</v>
+        <v>21960</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02402618883216917</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01230996679461167</v>
+        <v>0.01179655021632266</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04059688224771175</v>
+        <v>0.03950355645321155</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -7575,19 +7575,19 @@
         <v>16117</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9482</v>
+        <v>9875</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26155</v>
+        <v>25758</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02812324678941979</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01654614017522272</v>
+        <v>0.01723103651336291</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04563986873139697</v>
+        <v>0.04494588582534657</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -7596,19 +7596,19 @@
         <v>29473</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19684</v>
+        <v>20509</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42136</v>
+        <v>43292</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02610590546666992</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01743543641880982</v>
+        <v>0.01816629784700165</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03732280732741401</v>
+        <v>0.0383459609760394</v>
       </c>
     </row>
     <row r="17">
@@ -7625,19 +7625,19 @@
         <v>40868</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29894</v>
+        <v>29548</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54001</v>
+        <v>53049</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07351778275526849</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0537773035256123</v>
+        <v>0.05315397957506749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09714342940279505</v>
+        <v>0.09543057414088321</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -7646,19 +7646,19 @@
         <v>33764</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24699</v>
+        <v>23433</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46687</v>
+        <v>47289</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05891605667971062</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04309808974042932</v>
+        <v>0.04089007649988807</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08146765591434869</v>
+        <v>0.08251736994790004</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -7667,19 +7667,19 @@
         <v>74632</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>59979</v>
+        <v>60819</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>91826</v>
+        <v>92377</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06610576834672949</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05312686086769789</v>
+        <v>0.05387140821432739</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08133628910545247</v>
+        <v>0.08182409120641455</v>
       </c>
     </row>
     <row r="18">
@@ -7771,19 +7771,19 @@
         <v>3049</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8813</v>
+        <v>8206</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005950514108474067</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001927093445357855</v>
+        <v>0.001919594251298538</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01719947973099937</v>
+        <v>0.01601563424885158</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -7805,19 +7805,19 @@
         <v>3049</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8104</v>
+        <v>8191</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002883762953206997</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0009364128244333605</v>
+        <v>0.0009326606868355684</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007665349042432852</v>
+        <v>0.007746946734359134</v>
       </c>
     </row>
     <row r="20">
@@ -7834,19 +7834,19 @@
         <v>434774</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>416768</v>
+        <v>417572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>451199</v>
+        <v>451166</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8485522218065557</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8134090698042979</v>
+        <v>0.8149772875454461</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8806085915038123</v>
+        <v>0.8805432038458464</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>450</v>
@@ -7855,19 +7855,19 @@
         <v>483458</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>467298</v>
+        <v>469019</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>498138</v>
+        <v>497517</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8872681993890665</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8576104831509644</v>
+        <v>0.8607683883066136</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9142094840565286</v>
+        <v>0.9130701212114519</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>845</v>
@@ -7876,19 +7876,19 @@
         <v>918233</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>893001</v>
+        <v>892647</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>939738</v>
+        <v>939712</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8685055009374082</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8446400308520924</v>
+        <v>0.8443054208947396</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8888463481181554</v>
+        <v>0.8888212505975631</v>
       </c>
     </row>
     <row r="21">
@@ -7905,19 +7905,19 @@
         <v>17744</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9937</v>
+        <v>10104</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28696</v>
+        <v>29591</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03463135594340346</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01939436611116235</v>
+        <v>0.01972061848137269</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05600538358881716</v>
+        <v>0.05775281254719011</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -7926,19 +7926,19 @@
         <v>24396</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15237</v>
+        <v>15780</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>37516</v>
+        <v>36377</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04477239378284757</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02796310729740596</v>
+        <v>0.02896044462530108</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06885045332592427</v>
+        <v>0.06676073389317021</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>37</v>
@@ -7947,19 +7947,19 @@
         <v>42140</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>29376</v>
+        <v>29824</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>55750</v>
+        <v>57646</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03985780175006629</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02778493584370672</v>
+        <v>0.02820856557113269</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05273110142128869</v>
+        <v>0.05452456143773709</v>
       </c>
     </row>
     <row r="22">
@@ -7976,19 +7976,19 @@
         <v>56805</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42434</v>
+        <v>42086</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72311</v>
+        <v>73048</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1108659081415668</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08281835730531689</v>
+        <v>0.08213900701482107</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1411301072783378</v>
+        <v>0.1425682145007481</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -7997,19 +7997,19 @@
         <v>37030</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26054</v>
+        <v>26901</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50605</v>
+        <v>50110</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06795940682808589</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04781500111881396</v>
+        <v>0.04936944375463046</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09287385472218604</v>
+        <v>0.0919646751429344</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>85</v>
@@ -8018,19 +8018,19 @@
         <v>93835</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>77431</v>
+        <v>77460</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>114777</v>
+        <v>115976</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08875293435931852</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07323801316566445</v>
+        <v>0.07326536013029233</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1085613201503568</v>
+        <v>0.1096952203598652</v>
       </c>
     </row>
     <row r="23">
@@ -8169,19 +8169,19 @@
         <v>329704</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>314125</v>
+        <v>316706</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>340760</v>
+        <v>341109</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8886841091486954</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8466925481659201</v>
+        <v>0.8536505467231329</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9184869424004943</v>
+        <v>0.9194270365353051</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>309</v>
@@ -8190,19 +8190,19 @@
         <v>352805</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>337729</v>
+        <v>338164</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>363909</v>
+        <v>365343</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.891206998559919</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8531246877768887</v>
+        <v>0.8542233847629399</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9192574627279559</v>
+        <v>0.9228805085930889</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>600</v>
@@ -8211,19 +8211,19 @@
         <v>682508</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>661396</v>
+        <v>661842</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>699154</v>
+        <v>697534</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8899864652748037</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8624557974869778</v>
+        <v>0.8630377220149344</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9116928340070456</v>
+        <v>0.9095801954933089</v>
       </c>
     </row>
     <row r="26">
@@ -8243,16 +8243,16 @@
         <v>1955</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11168</v>
+        <v>11777</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01434461858485798</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005269056365467978</v>
+        <v>0.005270485591939166</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03010095686473253</v>
+        <v>0.03174338162904228</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -8261,19 +8261,19 @@
         <v>14654</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7465</v>
+        <v>8230</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25059</v>
+        <v>25916</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03701793973990028</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01885768746932102</v>
+        <v>0.02078990479883962</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06329973339964226</v>
+        <v>0.0654647735925243</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -8282,19 +8282,19 @@
         <v>19976</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10950</v>
+        <v>10846</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31445</v>
+        <v>31917</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02604895194728215</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0142791307979894</v>
+        <v>0.01414266395177464</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04100448235635639</v>
+        <v>0.0416200148815325</v>
       </c>
     </row>
     <row r="27">
@@ -8311,19 +8311,19 @@
         <v>35977</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>24662</v>
+        <v>24560</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>49004</v>
+        <v>48102</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.09697127226644654</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06647366212928692</v>
+        <v>0.06619868255876729</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1320858295262725</v>
+        <v>0.1296536065067417</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>25</v>
@@ -8332,19 +8332,19 @@
         <v>28414</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>19979</v>
+        <v>18098</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>41902</v>
+        <v>40804</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07177506170018069</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05046916110835466</v>
+        <v>0.04571769321958813</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1058461258723468</v>
+        <v>0.1030738193405297</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>58</v>
@@ -8353,19 +8353,19 @@
         <v>64390</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>49641</v>
+        <v>51343</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>83100</v>
+        <v>82367</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08396458277791406</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06473119823076622</v>
+        <v>0.06695045233480899</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1083617833560975</v>
+        <v>0.1074057615744536</v>
       </c>
     </row>
     <row r="28">
@@ -8504,19 +8504,19 @@
         <v>201556</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>189437</v>
+        <v>190555</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>209854</v>
+        <v>210776</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8758549030116641</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8231900664162832</v>
+        <v>0.8280520695034811</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9119118829619383</v>
+        <v>0.915919879575382</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>226</v>
@@ -8525,19 +8525,19 @@
         <v>240969</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>228629</v>
+        <v>226780</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>251346</v>
+        <v>250715</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8700870350438816</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8255315629512709</v>
+        <v>0.8188525142552033</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9075562327142954</v>
+        <v>0.9052792209088846</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>423</v>
@@ -8546,19 +8546,19 @@
         <v>442526</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>426275</v>
+        <v>425408</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>456562</v>
+        <v>455902</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8727046687657264</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.84065549871517</v>
+        <v>0.8389466619893445</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9003857463637157</v>
+        <v>0.8990836251993164</v>
       </c>
     </row>
     <row r="31">
@@ -8575,19 +8575,19 @@
         <v>2838</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>877</v>
+        <v>902</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7657</v>
+        <v>8316</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01233313316548014</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.003811585121520638</v>
+        <v>0.003920050662421157</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03327518534318991</v>
+        <v>0.03613516651132502</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>8</v>
@@ -8596,19 +8596,19 @@
         <v>9086</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4216</v>
+        <v>4165</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17363</v>
+        <v>17332</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03280755848885011</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01522186049100158</v>
+        <v>0.01503715314021729</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06269585054106767</v>
+        <v>0.06258204816764437</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>11</v>
@@ -8617,19 +8617,19 @@
         <v>11924</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5931</v>
+        <v>6815</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>20293</v>
+        <v>20959</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02351564222772774</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01169657662592792</v>
+        <v>0.01343895917936117</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04001997750430721</v>
+        <v>0.04133230030404949</v>
       </c>
     </row>
     <row r="32">
@@ -8646,19 +8646,19 @@
         <v>25731</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>17458</v>
+        <v>16947</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>36229</v>
+        <v>36152</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1118119638228557</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07586174182107926</v>
+        <v>0.07364133409873119</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1574312041066149</v>
+        <v>0.1570965720710854</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -8667,19 +8667,19 @@
         <v>26893</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17885</v>
+        <v>18847</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>37510</v>
+        <v>38393</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09710540646726824</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06457742646078632</v>
+        <v>0.06805279310439855</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1354415828215527</v>
+        <v>0.1386296499578222</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>52</v>
@@ -8688,19 +8688,19 @@
         <v>52624</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>40562</v>
+        <v>40431</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68382</v>
+        <v>67603</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1037796890065459</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07999321943362539</v>
+        <v>0.07973319176425323</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1348554979000443</v>
+        <v>0.1333195689651602</v>
       </c>
     </row>
     <row r="33">
@@ -8839,19 +8839,19 @@
         <v>133145</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>126042</v>
+        <v>126086</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>138755</v>
+        <v>138550</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.9053964815016536</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.8570969172777206</v>
+        <v>0.8573920745746016</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.943548894984802</v>
+        <v>0.9421500834153577</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>148</v>
@@ -8860,19 +8860,19 @@
         <v>198303</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>185245</v>
+        <v>183704</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>208162</v>
+        <v>208590</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.8750926276976736</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.8174708806118247</v>
+        <v>0.8106700566922757</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.918598633109001</v>
+        <v>0.9204864911024586</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>306</v>
@@ -8881,19 +8881,19 @@
         <v>331448</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>317185</v>
+        <v>316647</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>343996</v>
+        <v>341773</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.8870187955936304</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.8488494795114185</v>
+        <v>0.8474094566006659</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.9205999349482159</v>
+        <v>0.9146495608960914</v>
       </c>
     </row>
     <row r="36">
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6136</v>
+        <v>6070</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01173167280691626</v>
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04172526578980992</v>
+        <v>0.04127369301054798</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -8934,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>7476</v>
+        <v>7119</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005672765735649393</v>
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03299267097210967</v>
+        <v>0.03141686214168646</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -8952,19 +8952,19 @@
         <v>3011</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>9074</v>
+        <v>8370</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.008057265854523316</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002216840824876148</v>
+        <v>0.002193611182728084</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02428382872442502</v>
+        <v>0.02240086028726601</v>
       </c>
     </row>
     <row r="37">
@@ -8981,19 +8981,19 @@
         <v>12187</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7235</v>
+        <v>7200</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19382</v>
+        <v>18686</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08287184569143015</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04919664214172944</v>
+        <v>0.04896198380676565</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1317991789117147</v>
+        <v>0.1270641581890702</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -9002,19 +9002,19 @@
         <v>27020</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>17488</v>
+        <v>17441</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>39414</v>
+        <v>40834</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.119234606566677</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07717169488237179</v>
+        <v>0.0769635630658891</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.173928171385708</v>
+        <v>0.180196491914602</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>35</v>
@@ -9023,19 +9023,19 @@
         <v>39206</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>27231</v>
+        <v>29063</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>52591</v>
+        <v>53613</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1049239385518463</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07287583638709871</v>
+        <v>0.07777873584531764</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1407431322905213</v>
+        <v>0.1434785382242783</v>
       </c>
     </row>
     <row r="38">
@@ -9127,19 +9127,19 @@
         <v>3049</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>8207</v>
+        <v>9156</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001145175585165875</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0003715121155432717</v>
+        <v>0.0003725601246544075</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.003082566783373739</v>
+        <v>0.003439194474973649</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>5548</v>
+        <v>5547</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0003860815470046949</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.001935913483988584</v>
+        <v>0.0019355251559518</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>4</v>
@@ -9169,19 +9169,19 @@
         <v>4155</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1023</v>
+        <v>1036</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>10062</v>
+        <v>9788</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0007516452626314263</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0001849929633643242</v>
+        <v>0.0001873592157219264</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.001819987798393782</v>
+        <v>0.00177054386329734</v>
       </c>
     </row>
     <row r="40">
@@ -9198,19 +9198,19 @@
         <v>2361244</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2328159</v>
+        <v>2326574</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2393810</v>
+        <v>2395429</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.8868968565281335</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.8744699177681656</v>
+        <v>0.8738746587513888</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.8991286895298636</v>
+        <v>0.8997371113589987</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2403</v>
@@ -9219,19 +9219,19 @@
         <v>2522483</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2484320</v>
+        <v>2484254</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2557750</v>
+        <v>2556662</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.8801271183873269</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.8668114598415061</v>
+        <v>0.8667883953916248</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.8924323091204766</v>
+        <v>0.8920526111647166</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4647</v>
@@ -9240,19 +9240,19 @@
         <v>4883727</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4832401</v>
+        <v>4829285</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4932727</v>
+        <v>4928809</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.8833872818244791</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.874103200186394</v>
+        <v>0.8735395263411934</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.8922505302309838</v>
+        <v>0.8915419251810831</v>
       </c>
     </row>
     <row r="41">
@@ -9269,19 +9269,19 @@
         <v>52003</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>38516</v>
+        <v>37084</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>68476</v>
+        <v>68053</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01953245681585775</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01446672977744418</v>
+        <v>0.01392893044591041</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02572011394412571</v>
+        <v>0.02556109261291221</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>81</v>
@@ -9290,19 +9290,19 @@
         <v>88392</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>69757</v>
+        <v>69899</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>108297</v>
+        <v>109525</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03084128432952099</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02433903738277063</v>
+        <v>0.02438852907031301</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03778624287883812</v>
+        <v>0.03821468786256535</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>128</v>
@@ -9311,19 +9311,19 @@
         <v>140395</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>118466</v>
+        <v>117755</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>165786</v>
+        <v>166702</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0253951909636833</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02142856094649084</v>
+        <v>0.0212999513472064</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02998794887233685</v>
+        <v>0.03015378300855425</v>
       </c>
     </row>
     <row r="42">
@@ -9340,19 +9340,19 @@
         <v>246071</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>215228</v>
+        <v>215664</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>277505</v>
+        <v>276670</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.09242551107084278</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08084100795740454</v>
+        <v>0.08100476969824062</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1042326568399832</v>
+        <v>0.1039187505203479</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>241</v>
@@ -9361,19 +9361,19 @@
         <v>254062</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>224632</v>
+        <v>225350</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>288616</v>
+        <v>287352</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08864551573614735</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07837693332024043</v>
+        <v>0.07862753789490379</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1007018485901219</v>
+        <v>0.1002607077504595</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>475</v>
@@ -9382,19 +9382,19 @@
         <v>500132</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>456909</v>
+        <v>458163</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>547978</v>
+        <v>541824</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09046588194920614</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08264752046429835</v>
+        <v>0.08287423002930101</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09912041149812739</v>
+        <v>0.09800713205229507</v>
       </c>
     </row>
     <row r="43">
@@ -9776,19 +9776,19 @@
         <v>333244</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>310024</v>
+        <v>308764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>351913</v>
+        <v>353786</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8867697202256557</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8249814823481624</v>
+        <v>0.8216283756287288</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9364503955959566</v>
+        <v>0.9414347015873021</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -9797,19 +9797,19 @@
         <v>322137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307171</v>
+        <v>306796</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>332119</v>
+        <v>330984</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9441157807534906</v>
+        <v>0.9441157807534903</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9002546763666883</v>
+        <v>0.8991557650566575</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9733699298379707</v>
+        <v>0.9700430213827264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>326</v>
@@ -9818,19 +9818,19 @@
         <v>655382</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>629246</v>
+        <v>625812</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>678704</v>
+        <v>676173</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9140594784364688</v>
+        <v>0.914059478436469</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8776081472639458</v>
+        <v>0.8728195438887739</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9465873291922995</v>
+        <v>0.943057820631785</v>
       </c>
     </row>
     <row r="6">
@@ -9847,19 +9847,19 @@
         <v>7154</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1700</v>
+        <v>1735</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18469</v>
+        <v>20220</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01903775716232853</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004523871101041473</v>
+        <v>0.00461556248381309</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04914705021150088</v>
+        <v>0.05380577764193574</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14771</v>
+        <v>18323</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01400077597118389</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04329107739536378</v>
+        <v>0.05369969169226869</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -9889,19 +9889,19 @@
         <v>11931</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4163</v>
+        <v>4160</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27698</v>
+        <v>27455</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01664076602547388</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005806275331856804</v>
+        <v>0.005801481637517896</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0386300224700409</v>
+        <v>0.03829159534505638</v>
       </c>
     </row>
     <row r="7">
@@ -9918,19 +9918,19 @@
         <v>35397</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18815</v>
+        <v>16383</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59983</v>
+        <v>58122</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09419252261201587</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05006782765779325</v>
+        <v>0.04359469577950851</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1596162392152394</v>
+        <v>0.1546631716314246</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -9939,19 +9939,19 @@
         <v>14291</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6075</v>
+        <v>6584</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28063</v>
+        <v>27803</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04188344327532562</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01780526042079683</v>
+        <v>0.01929591649909403</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08224788383106076</v>
+        <v>0.08148465726148786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -9960,19 +9960,19 @@
         <v>49688</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26976</v>
+        <v>30179</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76131</v>
+        <v>76762</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06929975553805738</v>
+        <v>0.06929975553805739</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03762329862576155</v>
+        <v>0.04209015396390547</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1061801425590829</v>
+        <v>0.1070601470851928</v>
       </c>
     </row>
     <row r="8">
@@ -10111,19 +10111,19 @@
         <v>407583</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>388647</v>
+        <v>385707</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>422576</v>
+        <v>421357</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9108424966027787</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8685265160042067</v>
+        <v>0.8619564776535759</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9443491213238105</v>
+        <v>0.9416240993286037</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>413</v>
@@ -10132,19 +10132,19 @@
         <v>451173</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>438873</v>
+        <v>436816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>461016</v>
+        <v>461443</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9341618135048652</v>
+        <v>0.9341618135048649</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9086942653930612</v>
+        <v>0.9044343196657953</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9545422910233908</v>
+        <v>0.9554258033904899</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>672</v>
@@ -10153,19 +10153,19 @@
         <v>858755</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>834900</v>
+        <v>833860</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>875717</v>
+        <v>875643</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9229469121191884</v>
+        <v>0.9229469121191883</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8973088148862054</v>
+        <v>0.8961914311374308</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9411770186249389</v>
+        <v>0.9410977051302306</v>
       </c>
     </row>
     <row r="11">
@@ -10182,19 +10182,19 @@
         <v>9778</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3613</v>
+        <v>3505</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22121</v>
+        <v>21695</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.021850371487614</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00807425044746298</v>
+        <v>0.00783385319942065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04943392974650175</v>
+        <v>0.0484828429923856</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -10203,19 +10203,19 @@
         <v>6875</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2163</v>
+        <v>2714</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13484</v>
+        <v>14695</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01423541281241187</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004478195288652212</v>
+        <v>0.005620100701333825</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02791935458789634</v>
+        <v>0.03042576681311485</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -10224,19 +10224,19 @@
         <v>16653</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8240</v>
+        <v>8726</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29920</v>
+        <v>29186</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01789765604865149</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008856114257956457</v>
+        <v>0.009378359881347947</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03215662422471464</v>
+        <v>0.031367377701739</v>
       </c>
     </row>
     <row r="12">
@@ -10253,19 +10253,19 @@
         <v>30119</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18419</v>
+        <v>18843</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50044</v>
+        <v>49367</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06730713190960727</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04116109550073315</v>
+        <v>0.042108440160606</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1118357351649317</v>
+        <v>0.1103219359155199</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -10274,19 +10274,19 @@
         <v>24923</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16432</v>
+        <v>16329</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36054</v>
+        <v>38128</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.0516027736827231</v>
+        <v>0.05160277368272309</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03402315403933305</v>
+        <v>0.03380997567073492</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07465146609285575</v>
+        <v>0.07894398403312383</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -10295,19 +10295,19 @@
         <v>55041</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>40353</v>
+        <v>40749</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>75516</v>
+        <v>74886</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05915543183216</v>
+        <v>0.05915543183216001</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04336986352343161</v>
+        <v>0.04379479113710836</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08116110755298886</v>
+        <v>0.0804838883059123</v>
       </c>
     </row>
     <row r="13">
@@ -10446,19 +10446,19 @@
         <v>545066</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>527591</v>
+        <v>529658</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>557770</v>
+        <v>558329</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9095651367688237</v>
+        <v>0.9095651367688232</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.880403338630022</v>
+        <v>0.8838532740019802</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9307646513622577</v>
+        <v>0.9316968347193034</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>774</v>
@@ -10467,19 +10467,19 @@
         <v>569936</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>559101</v>
+        <v>559485</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>579079</v>
+        <v>578819</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.9409292175347354</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.92304112492497</v>
+        <v>0.9236750253530894</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9560235738848981</v>
+        <v>0.9555954984151332</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1250</v>
@@ -10488,19 +10488,19 @@
         <v>1115002</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1096606</v>
+        <v>1096011</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1130447</v>
+        <v>1132031</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.9253312035305478</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.9100648440841522</v>
+        <v>0.9095709628482718</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9381490732653931</v>
+        <v>0.9394634080916051</v>
       </c>
     </row>
     <row r="16">
@@ -10517,19 +10517,19 @@
         <v>12714</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7373</v>
+        <v>6777</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23075</v>
+        <v>22663</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02121618705009134</v>
+        <v>0.02121618705009133</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01230380688997341</v>
+        <v>0.01130821095171489</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03850553819243239</v>
+        <v>0.03781861056073753</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -10538,19 +10538,19 @@
         <v>5598</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2673</v>
+        <v>2756</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10626</v>
+        <v>10774</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.009242087070471692</v>
+        <v>0.009242087070471691</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004413624647007077</v>
+        <v>0.00454922003450925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01754270145216628</v>
+        <v>0.01778705389405142</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -10559,19 +10559,19 @@
         <v>18312</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11051</v>
+        <v>11009</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28948</v>
+        <v>27614</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01519705768043918</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009171158597295974</v>
+        <v>0.009136645604618868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02402412513841702</v>
+        <v>0.02291687102784168</v>
       </c>
     </row>
     <row r="17">
@@ -10588,19 +10588,19 @@
         <v>41480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30553</v>
+        <v>29616</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54675</v>
+        <v>54780</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06921867618108522</v>
+        <v>0.06921867618108521</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05098390009366802</v>
+        <v>0.04942019592864589</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09123738511214839</v>
+        <v>0.09141269080306662</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -10609,19 +10609,19 @@
         <v>30182</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21658</v>
+        <v>22189</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40911</v>
+        <v>40049</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04982869539479283</v>
+        <v>0.04982869539479282</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03575666006936658</v>
+        <v>0.03663209753300899</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06754186931878151</v>
+        <v>0.06611919821960832</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>79</v>
@@ -10630,19 +10630,19 @@
         <v>71662</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56646</v>
+        <v>57476</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>86378</v>
+        <v>89155</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0594717387890132</v>
+        <v>0.05947173878901321</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04700980246479664</v>
+        <v>0.04769874736747667</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07168476423946493</v>
+        <v>0.07398928887168246</v>
       </c>
     </row>
     <row r="18">
@@ -10781,19 +10781,19 @@
         <v>613330</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>593886</v>
+        <v>594910</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>627591</v>
+        <v>628091</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9044476111021857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8757746408336132</v>
+        <v>0.8772847346877294</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9254767121822899</v>
+        <v>0.9262145972428579</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1063</v>
@@ -10802,19 +10802,19 @@
         <v>686320</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>674667</v>
+        <v>676027</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>694834</v>
+        <v>694973</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9472067930599215</v>
+        <v>0.9472067930599216</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9311240361120204</v>
+        <v>0.9330003338665198</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9589565026216567</v>
+        <v>0.9591485788264623</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1645</v>
@@ -10823,19 +10823,19 @@
         <v>1299651</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1280549</v>
+        <v>1278384</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1317245</v>
+        <v>1317017</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9265351296359494</v>
+        <v>0.9265351296359495</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9129169508797776</v>
+        <v>0.9113734576557579</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9390784655672691</v>
+        <v>0.9389153485360706</v>
       </c>
     </row>
     <row r="21">
@@ -10852,19 +10852,19 @@
         <v>12301</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5894</v>
+        <v>6125</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20883</v>
+        <v>21803</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01813929710543251</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.008691478703631293</v>
+        <v>0.009031718830089758</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03079475082510408</v>
+        <v>0.03215154570762237</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -10873,19 +10873,19 @@
         <v>9984</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6016</v>
+        <v>5586</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17258</v>
+        <v>15312</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01377963856696385</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008302852781572966</v>
+        <v>0.007709854550818944</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02381824672041254</v>
+        <v>0.02113284473741902</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -10894,19 +10894,19 @@
         <v>22285</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14320</v>
+        <v>14690</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>32900</v>
+        <v>33019</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.01588728866279001</v>
+        <v>0.01588728866279002</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01020863586320358</v>
+        <v>0.01047243246227135</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02345509168194064</v>
+        <v>0.02353938421556331</v>
       </c>
     </row>
     <row r="22">
@@ -10923,19 +10923,19 @@
         <v>52496</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39706</v>
+        <v>39274</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70597</v>
+        <v>68450</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07741309179238152</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05855179830528263</v>
+        <v>0.05791587304312933</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1041059015502254</v>
+        <v>0.1009402157067074</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -10944,19 +10944,19 @@
         <v>28268</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21500</v>
+        <v>21183</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37625</v>
+        <v>37015</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03901356837311465</v>
+        <v>0.03901356837311464</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02967234893786073</v>
+        <v>0.02923497008920062</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05192736046576376</v>
+        <v>0.05108579212339347</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -10965,19 +10965,19 @@
         <v>80764</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>65648</v>
+        <v>65056</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>97722</v>
+        <v>100240</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05757758170126043</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04680086093545929</v>
+        <v>0.04637888622212299</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06966707979662864</v>
+        <v>0.07146190852630432</v>
       </c>
     </row>
     <row r="23">
@@ -11116,19 +11116,19 @@
         <v>534994</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>521324</v>
+        <v>519176</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>548078</v>
+        <v>547741</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8984928859110987</v>
+        <v>0.8984928859110984</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8755341470709563</v>
+        <v>0.8719265456044055</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9204666122809149</v>
+        <v>0.9199007690210877</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>911</v>
@@ -11137,19 +11137,19 @@
         <v>551592</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>541350</v>
+        <v>540723</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>561303</v>
+        <v>560581</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.9257809325841814</v>
+        <v>0.9257809325841813</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9085908290257408</v>
+        <v>0.9075378534899138</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9420794913647288</v>
+        <v>0.9408677619651153</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1490</v>
@@ -11158,19 +11158,19 @@
         <v>1086586</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1069087</v>
+        <v>1067963</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1104752</v>
+        <v>1102649</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.912141233104949</v>
+        <v>0.9121412331049492</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8974511569645346</v>
+        <v>0.8965076361520958</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9273903782940212</v>
+        <v>0.9256247020036283</v>
       </c>
     </row>
     <row r="26">
@@ -11187,19 +11187,19 @@
         <v>6345</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2655</v>
+        <v>2730</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12311</v>
+        <v>12586</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01065528716065393</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00445919038854262</v>
+        <v>0.004584243378613395</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02067588026858744</v>
+        <v>0.02113800458697439</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -11208,19 +11208,19 @@
         <v>8920</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4869</v>
+        <v>5290</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14648</v>
+        <v>15508</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01497138942637654</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008171686633654616</v>
+        <v>0.008878392618115219</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02458552506633302</v>
+        <v>0.02602874331602312</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -11229,19 +11229,19 @@
         <v>15265</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9311</v>
+        <v>9935</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23415</v>
+        <v>22845</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01281402219040798</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007815918276758625</v>
+        <v>0.008339604155632811</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01965561113813464</v>
+        <v>0.01917704801468464</v>
       </c>
     </row>
     <row r="27">
@@ -11258,19 +11258,19 @@
         <v>54096</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>41478</v>
+        <v>41264</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>68058</v>
+        <v>69149</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09085182692824743</v>
+        <v>0.09085182692824742</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06965988505357036</v>
+        <v>0.0693008363655004</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1143004657226186</v>
+        <v>0.1161312330560469</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>56</v>
@@ -11279,19 +11279,19 @@
         <v>35301</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>26304</v>
+        <v>26808</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>44535</v>
+        <v>45843</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.05924767798944223</v>
+        <v>0.05924767798944221</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04414882806427187</v>
+        <v>0.04499350934777384</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07474589738596324</v>
+        <v>0.07694188322165946</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>117</v>
@@ -11300,19 +11300,19 @@
         <v>89397</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>73694</v>
+        <v>74075</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>105914</v>
+        <v>105589</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07504474470464292</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06186301892040112</v>
+        <v>0.06218263070858234</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08891011026778253</v>
+        <v>0.08863715901810329</v>
       </c>
     </row>
     <row r="28">
@@ -11451,19 +11451,19 @@
         <v>340693</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>328106</v>
+        <v>328552</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>351196</v>
+        <v>351303</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8619732009847224</v>
+        <v>0.8619732009847223</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8301279075415199</v>
+        <v>0.8312542565814236</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8885450700648022</v>
+        <v>0.8888159617000995</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>740</v>
@@ -11472,19 +11472,19 @@
         <v>391913</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>383115</v>
+        <v>381898</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>400650</v>
+        <v>399414</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.9099117216229626</v>
+        <v>0.9099117216229625</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.889485605206041</v>
+        <v>0.8866616809374502</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9301975594625713</v>
+        <v>0.9273270527953328</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1217</v>
@@ -11493,19 +11493,19 @@
         <v>732606</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>716731</v>
+        <v>717402</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>746535</v>
+        <v>746122</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.8869716993189813</v>
+        <v>0.8869716993189812</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8677522952101127</v>
+        <v>0.8685639815028261</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9038361256450501</v>
+        <v>0.903335262259739</v>
       </c>
     </row>
     <row r="31">
@@ -11522,19 +11522,19 @@
         <v>10400</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6064</v>
+        <v>5295</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18205</v>
+        <v>17448</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02631260099610969</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01534257710607889</v>
+        <v>0.01339673151613348</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04605904935780934</v>
+        <v>0.04414564968772137</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -11543,19 +11543,19 @@
         <v>4202</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1741</v>
+        <v>1816</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8363</v>
+        <v>8269</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.009756796368277273</v>
+        <v>0.00975679636827727</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00404173198994919</v>
+        <v>0.004215397012099885</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01941710705953654</v>
+        <v>0.0191973387920231</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -11564,19 +11564,19 @@
         <v>14602</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>9110</v>
+        <v>9193</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>22066</v>
+        <v>22280</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01767924625547451</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01102979857633775</v>
+        <v>0.01113030707550661</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02671545530309628</v>
+        <v>0.02697496687799916</v>
       </c>
     </row>
     <row r="32">
@@ -11593,19 +11593,19 @@
         <v>44155</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35130</v>
+        <v>35534</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>56363</v>
+        <v>56202</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1117141980191681</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08888188950671219</v>
+        <v>0.08990305885501547</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1426023795081424</v>
+        <v>0.1421943753142472</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>63</v>
@@ -11614,19 +11614,19 @@
         <v>34600</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26333</v>
+        <v>27615</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>43464</v>
+        <v>44063</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.08033148200876029</v>
+        <v>0.08033148200876027</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06113887882269577</v>
+        <v>0.06411399941793826</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.100910698480615</v>
+        <v>0.1023019451220513</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>126</v>
@@ -11635,19 +11635,19 @@
         <v>78755</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>66168</v>
+        <v>66413</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>92993</v>
+        <v>93215</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.09534905442554414</v>
+        <v>0.09534905442554413</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08011015664246003</v>
+        <v>0.08040696750721502</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1125876414610478</v>
+        <v>0.1128563115182326</v>
       </c>
     </row>
     <row r="33">
@@ -11786,19 +11786,19 @@
         <v>269422</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>258932</v>
+        <v>259324</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>278334</v>
+        <v>278279</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.8871159124465724</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.8525747752278813</v>
+        <v>0.8538648901964739</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.9164573100014465</v>
+        <v>0.9162767189521246</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>764</v>
@@ -11807,19 +11807,19 @@
         <v>399044</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>388764</v>
+        <v>388323</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>408320</v>
+        <v>408245</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.8918449280201771</v>
+        <v>0.8918449280201773</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.8688698990906555</v>
+        <v>0.8678849506054456</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.9125778863494549</v>
+        <v>0.9124092213866407</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1162</v>
@@ -11828,19 +11828,19 @@
         <v>668467</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>654020</v>
+        <v>652994</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>680852</v>
+        <v>680579</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.8899328647013116</v>
+        <v>0.8899328647013114</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.870699127752444</v>
+        <v>0.8693333589955075</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.9064217844487914</v>
+        <v>0.9060584665904858</v>
       </c>
     </row>
     <row r="36">
@@ -11857,19 +11857,19 @@
         <v>2846</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8316</v>
+        <v>7683</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009372384985406112</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.002868385147318514</v>
+        <v>0.002882745259362205</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02738143237699424</v>
+        <v>0.0252969665272209</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>9</v>
@@ -11878,19 +11878,19 @@
         <v>4668</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2423</v>
+        <v>2243</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8977</v>
+        <v>8918</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01043183462240517</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.005415857824942551</v>
+        <v>0.005013056616217202</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02006418943116755</v>
+        <v>0.01993123436395788</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>12</v>
@@ -11899,19 +11899,19 @@
         <v>7514</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3771</v>
+        <v>3957</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>13203</v>
+        <v>13145</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.01000347173005226</v>
+        <v>0.01000347173005225</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005019984360382985</v>
+        <v>0.005267684294557225</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01757667159660451</v>
+        <v>0.0174995297584443</v>
       </c>
     </row>
     <row r="37">
@@ -11928,19 +11928,19 @@
         <v>31437</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>23321</v>
+        <v>23111</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>41083</v>
+        <v>40742</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1035117025680216</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07678963211458623</v>
+        <v>0.07609539111106967</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1352735763287765</v>
+        <v>0.1341481428744589</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>79</v>
@@ -11949,19 +11949,19 @@
         <v>43725</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>34632</v>
+        <v>35086</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>52868</v>
+        <v>53552</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.09772323735741761</v>
+        <v>0.09772323735741763</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07740079752661386</v>
+        <v>0.07841554951722003</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1181586559207359</v>
+        <v>0.1196855043934381</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>126</v>
@@ -11970,19 +11970,19 @@
         <v>75162</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>62790</v>
+        <v>62543</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>88612</v>
+        <v>89221</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.1000636635686362</v>
+        <v>0.1000636635686361</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08359214591078494</v>
+        <v>0.08326433727469679</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1179691431008633</v>
+        <v>0.1187799294554573</v>
       </c>
     </row>
     <row r="38">
@@ -12121,19 +12121,19 @@
         <v>3044333</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3003424</v>
+        <v>2999706</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3081349</v>
+        <v>3083496</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.8966974169554189</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.8846478622459003</v>
+        <v>0.8835528254480812</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.9076006006381915</v>
+        <v>0.9082327995443491</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4849</v>
@@ -12142,19 +12142,19 @@
         <v>3372115</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3344014</v>
+        <v>3342692</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3400267</v>
+        <v>3399261</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.9293594864795446</v>
+        <v>0.9293594864795447</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.9216149132423106</v>
+        <v>0.921250544087879</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.9371181850682632</v>
+        <v>0.9368409226625601</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>7762</v>
@@ -12163,19 +12163,19 @@
         <v>6416447</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6365794</v>
+        <v>6365685</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6464171</v>
+        <v>6460582</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.9135711056431931</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.9063591424265263</v>
+        <v>0.906343601330422</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.9203659647081708</v>
+        <v>0.9198550251786399</v>
       </c>
     </row>
     <row r="41">
@@ -12192,19 +12192,19 @@
         <v>61538</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>46014</v>
+        <v>46925</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>81378</v>
+        <v>83164</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0181256876064581</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01355336056525676</v>
+        <v>0.01382147955426248</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02396952694630638</v>
+        <v>0.02449579462345478</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>61</v>
@@ -12213,19 +12213,19 @@
         <v>45025</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>34651</v>
+        <v>34725</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>60901</v>
+        <v>60076</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01240894696513624</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00954995029455508</v>
+        <v>0.00957013991458444</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01678437246680657</v>
+        <v>0.01655715705185064</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>114</v>
@@ -12234,19 +12234,19 @@
         <v>106563</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>87251</v>
+        <v>87012</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>129730</v>
+        <v>132515</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.01517233825365116</v>
+        <v>0.01517233825365115</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01242280826254858</v>
+        <v>0.01238875762261124</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01847084553632303</v>
+        <v>0.01886749579773644</v>
       </c>
     </row>
     <row r="42">
@@ -12263,19 +12263,19 @@
         <v>289180</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>254552</v>
+        <v>255592</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>326879</v>
+        <v>331488</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.08517689543812298</v>
+        <v>0.08517689543812297</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07497753841882361</v>
+        <v>0.07528385090634038</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09628113875794435</v>
+        <v>0.09763871018904573</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>313</v>
@@ -12284,19 +12284,19 @@
         <v>211289</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>184996</v>
+        <v>187799</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>236010</v>
+        <v>238049</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.05823156655531921</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05098521046769</v>
+        <v>0.05175778008272439</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06504460680474894</v>
+        <v>0.06560671309336552</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>599</v>
@@ -12305,19 +12305,19 @@
         <v>500469</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>454688</v>
+        <v>462586</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>544156</v>
+        <v>549797</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0712565561031557</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06473826122025185</v>
+        <v>0.0658628525036581</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07747675101597562</v>
+        <v>0.07827982737484671</v>
       </c>
     </row>
     <row r="43">
